--- a/biology/Botanique/Corticium/Corticium.xlsx
+++ b/biology/Botanique/Corticium/Corticium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les champignons (basidiomycètes) fructifiant directement sur le bois (troncs, souches, branches, d'arbres morts ou encore vivants) appartenant à l'ancienne classe des polypores au sens large (Aphyllophorales[1]), beaucoup d'espèces n'ont même pas de chapeau et ressemblent à des « croûtes » étalées sur le support. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les champignons (basidiomycètes) fructifiant directement sur le bois (troncs, souches, branches, d'arbres morts ou encore vivants) appartenant à l'ancienne classe des polypores au sens large (Aphyllophorales), beaucoup d'espèces n'ont même pas de chapeau et ressemblent à des « croûtes » étalées sur le support. 
 Ils peuvent être étudiés en toute saison, car ils se développent tout au long de l’année, mais le microscope est souvent nécessaire pour arriver à les identifier (déterminer). 
 Dans la classification morphologique classique, le genre Corticium regroupait les « Corticiés » :  
 généralement non réfléchis, et non coriaces,
 dépourvus de cystides, mais pouvant posséder des cystidioles nées au niveau des basides, de taille assez voisine, et
 parfois des "éléments paraphysoïdes".
-Ce genre vaste et hétérogène, a été ensuite découpé en 6 sections, mais si on accepte comme type  Corticium roseum (section 11 : Aleurodiscoidea), pratiquement tous les autres Corticium doivent trouver place dans d'autres genres[2] ! 
+Ce genre vaste et hétérogène, a été ensuite découpé en 6 sections, mais si on accepte comme type  Corticium roseum (section 11 : Aleurodiscoidea), pratiquement tous les autres Corticium doivent trouver place dans d'autres genres ! 
 </t>
         </is>
       </c>
@@ -518,6 +530,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (29 octobre 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (29 octobre 2013) :
 Corticium abeuns Burt 1926
 Corticium abietis (Fr.) Romell 1895
 Corticium abnorme Henn. 1904
@@ -1373,7 +1389,7 @@
 Corticium subcostatum var. subcostatum
 Corticium subcretaceum Litsch. 1939
 Corticium subdealbatum Berk. &amp; Broome 1879
-C</t>
+Cort</t>
         </is>
       </c>
     </row>
